--- a/Courses/TMII/Drivestest_TMII_Lu.xlsx
+++ b/Courses/TMII/Drivestest_TMII_Lu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\losttemple2\Courses\TMII\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E49508D-412F-4C60-A193-423BE9F71079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5C3D58-BED5-44C6-8A6B-F7C1EE335255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="3" r:id="rId1"/>
@@ -1908,11 +1908,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:J112"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="32" ySplit="7" topLeftCell="AG97" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="32" ySplit="7" topLeftCell="AG94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AG1" sqref="AG1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K114" sqref="K114"/>
+      <selection pane="bottomRight" activeCell="M112" sqref="M112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2042,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2100,7 +2100,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2129,7 +2129,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2158,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2263,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="J19" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2292,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2397,7 +2397,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2426,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="31">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2484,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2513,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2542,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="31">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.3">
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="31">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3020,7 +3020,7 @@
         <v>1</v>
       </c>
       <c r="J54" s="31">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="J55" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3078,7 +3078,7 @@
         <v>1</v>
       </c>
       <c r="J56" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3107,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3259,7 +3259,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="J67" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.3">
@@ -3411,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3440,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="31">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3469,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="31">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3556,7 +3556,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="31">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -3650,7 +3650,7 @@
         <v>1</v>
       </c>
       <c r="J81" s="31">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3708,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
@@ -3860,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3889,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3918,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -3947,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4041,7 +4041,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="J101" s="31">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4157,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="J102" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4251,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="31">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4280,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="J108" s="31">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4338,7 +4338,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -4396,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4502,7 +4502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:AZ26"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="28" ySplit="27" topLeftCell="AC58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="AC1" sqref="AC1"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
@@ -4593,35 +4593,35 @@
       </c>
       <c r="F6" s="14">
         <f>Survey!J13</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="14">
         <f>Survey!J12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J6" s="14">
         <f>Survey!J14</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>26</v>
       </c>
       <c r="L6" s="15">
         <f>Survey!J10</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" s="16" t="s">
         <v>27</v>
       </c>
       <c r="N6" s="14">
         <f>Survey!J11</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:52" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -4633,28 +4633,28 @@
       </c>
       <c r="D7" s="14">
         <f>Survey!J22</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="14">
         <f>Survey!J20</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>27</v>
       </c>
       <c r="H7" s="14">
         <f>Survey!J19</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="14">
         <f>Survey!J21</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>22</v>
@@ -4680,28 +4680,28 @@
       </c>
       <c r="D8" s="14">
         <f>Survey!J27</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="14">
         <f>Survey!J29</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="14">
         <f>Survey!J30</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="14">
         <f>Survey!J26</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>27</v>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="N8" s="14">
         <f>Survey!J31</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:52" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -4788,21 +4788,21 @@
       </c>
       <c r="H10" s="14">
         <f>Survey!J44</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="14">
         <f>Survey!J49</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="15">
         <f>Survey!J47</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="16" t="s">
         <v>23</v>
@@ -4828,35 +4828,35 @@
       </c>
       <c r="F11" s="14">
         <f>Survey!J55</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="14">
         <f>Survey!J53</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>26</v>
       </c>
       <c r="J11" s="14">
         <f>Survey!J54</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="15">
         <f>Survey!J56</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11" s="16" t="s">
         <v>23</v>
       </c>
       <c r="N11" s="14">
         <f>Survey!J57</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:52" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -4889,7 +4889,7 @@
       </c>
       <c r="J12" s="14">
         <f>Survey!J64</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>26</v>
@@ -4903,7 +4903,7 @@
       </c>
       <c r="N12" s="14">
         <f>Survey!J67</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:52" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -4915,7 +4915,7 @@
       </c>
       <c r="D13" s="14">
         <f>Survey!J73</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>23</v>
@@ -4936,21 +4936,21 @@
       </c>
       <c r="J13" s="14">
         <f>Survey!J71</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="L13" s="15">
         <f>Survey!J72</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13" s="16" t="s">
         <v>25</v>
       </c>
       <c r="N13" s="14">
         <f>Survey!J76</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AU13" s="22"/>
       <c r="AV13" s="22"/>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="H14" s="14">
         <f>Survey!J83</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>22</v>
@@ -4996,14 +4996,14 @@
       </c>
       <c r="L14" s="15">
         <f>Survey!J81</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>25</v>
       </c>
       <c r="N14" s="14">
         <f>Survey!J85</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" s="22"/>
       <c r="AV14" s="22"/>
@@ -5021,21 +5021,21 @@
       </c>
       <c r="D15" s="14">
         <f>Survey!J93</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="14">
         <f>Survey!J90</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="14">
         <f>Survey!J92</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" s="13" t="s">
         <v>22</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="N15" s="14">
         <f>Survey!J91</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:52" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -5068,7 +5068,7 @@
       </c>
       <c r="D16" s="14">
         <f>Survey!J101</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>27</v>
@@ -5082,14 +5082,14 @@
       </c>
       <c r="H16" s="14">
         <f>Survey!J102</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="14">
         <f>Survey!J98</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>26</v>
@@ -5115,21 +5115,21 @@
       </c>
       <c r="D17" s="14">
         <f>Survey!J107</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="14">
         <f>Survey!J110</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>26</v>
       </c>
       <c r="H17" s="14">
         <f>Survey!J108</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>27</v>
@@ -5150,7 +5150,7 @@
       </c>
       <c r="N17" s="14">
         <f>Survey!J112</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:39" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5160,32 +5160,32 @@
       <c r="C18" s="18"/>
       <c r="D18" s="19">
         <f>SUM(D6:D17)</f>
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="19">
         <f>SUM(F6:F17)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G18" s="20"/>
       <c r="H18" s="19">
         <f>SUM(H6:H17)</f>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="19">
         <f>SUM(J6:J17)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K18" s="20"/>
       <c r="L18" s="19">
         <f>SUM(L6:L17)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M18" s="21"/>
       <c r="N18" s="19">
         <f>SUM(N6:N17)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="2:39" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5200,12 +5200,12 @@
       <c r="E19" s="28"/>
       <c r="F19" s="29">
         <f>HLOOKUP(F18,$AH$19:$AM$20,2,FALSE)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="29">
         <f>HLOOKUP(H18,$AH$19:$AM$20,2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I19" s="28"/>
       <c r="J19" s="29">
@@ -5220,7 +5220,7 @@
       <c r="M19" s="28"/>
       <c r="N19" s="30">
         <f>HLOOKUP(N18,$AH$19:$AM$20,2,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF19" s="32" t="s">
         <v>107</v>
@@ -5228,27 +5228,27 @@
       <c r="AG19" s="32"/>
       <c r="AH19" s="33">
         <f>LARGE($D$18:$N$18,1)</f>
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="AI19" s="33">
         <f>LARGE($D$18:$N$18,2)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AJ19" s="33">
         <f>LARGE($D$18:$N$18,3)</f>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK19" s="33">
         <f>LARGE($D$18:$N$18,4)</f>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL19" s="33">
         <f>LARGE($D$18:$N$18,5)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AM19" s="33">
         <f>LARGE($D$18:$N$18,6)</f>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="2:39" ht="21.75" thickTop="1" x14ac:dyDescent="0.35">
